--- a/data/compatibility/openEuler22.03-LTS-SP2上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS-SP2上两类平台板卡兼容清单.xlsx
@@ -12,14 +12,27 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS-SP2两类平台板卡兼容性'!$A$1:$Q$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS-SP2两类平台板卡兼容性'!$A$1:$Q$42</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="122">
   <si>
     <t>vendorID</t>
   </si>
@@ -505,6 +518,72 @@
     <t>QLE2872</t>
   </si>
   <si>
+    <t>8086</t>
+  </si>
+  <si>
+    <t>1572</t>
+  </si>
+  <si>
+    <t>19e5</t>
+  </si>
+  <si>
+    <t>d11c</t>
+  </si>
+  <si>
+    <t>i40e</t>
+  </si>
+  <si>
+    <t>5.10.0-153.12.0.92.oe2203sp2.x86_64</t>
+  </si>
+  <si>
+    <t>2024.02.19</t>
+  </si>
+  <si>
+    <t>23e14f6cb17ea1a938069f2d0b1c4124fa63cffb6f6d63762c7eadbba1e3e5fc</t>
+  </si>
+  <si>
+    <t>189K</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>X710</t>
+  </si>
+  <si>
+    <t>06310200</t>
+  </si>
+  <si>
+    <t>10fb</t>
+  </si>
+  <si>
+    <t>d111</t>
+  </si>
+  <si>
+    <t>ixgbe</t>
+  </si>
+  <si>
+    <t>5.10.0-153.1.0.81.oe2203sp2.x86_64</t>
+  </si>
+  <si>
+    <t>2023.06.20</t>
+  </si>
+  <si>
+    <t>a1479d8c14cdc4a5ab701da39b862dbe0dc99d8e4385651ef797af7405dd2b56</t>
+  </si>
+  <si>
+    <t>162.6K</t>
+  </si>
+  <si>
+    <t>SP310</t>
+  </si>
+  <si>
+    <t>82599ES</t>
+  </si>
+  <si>
+    <t>02311LSY</t>
+  </si>
+  <si>
     <t>板卡</t>
   </si>
   <si>
@@ -514,7 +593,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1638,12 +1717,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1659,7 +1738,7 @@
     <col min="9" max="9" width="5.75" style="6" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="6" customWidth="1"/>
     <col min="11" max="11" width="62.25" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="6" customWidth="1"/>
+    <col min="12" max="12" width="6.29166666666667" style="6" customWidth="1"/>
     <col min="13" max="13" width="16.1166666666667" style="6" customWidth="1"/>
     <col min="14" max="14" width="12.925" style="8" customWidth="1"/>
     <col min="15" max="15" width="10.9416666666667" style="4" customWidth="1"/>
@@ -1669,7 +1748,7 @@
     <col min="19" max="1024" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="40.5" spans="1:18">
+    <row r="1" s="4" customFormat="1" ht="27" spans="1:18">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3716,8 +3795,114 @@
         <v>81</v>
       </c>
     </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q40">
+  <autoFilter ref="A1:Q42">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3769,10 +3954,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1"/>

--- a/data/compatibility/openEuler22.03-LTS-SP2上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS-SP2上两类平台板卡兼容清单.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="135">
   <si>
     <t>vendorID</t>
   </si>
@@ -582,6 +582,45 @@
   </si>
   <si>
     <t>02311LSY</t>
+  </si>
+  <si>
+    <t>1ec6</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>vastai_pci</t>
+  </si>
+  <si>
+    <t>CD9440DD8E1973C48A18416</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>2024.1.19</t>
+  </si>
+  <si>
+    <t>df47d49f3418d5a61002739a246470d35238c8bff4d4ee2fa1081c186c95bf57</t>
+  </si>
+  <si>
+    <t>29.8M</t>
+  </si>
+  <si>
+    <t>VASTAI</t>
+  </si>
+  <si>
+    <t>VG1000</t>
+  </si>
+  <si>
+    <t>SG100</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS-SP2/contrib/drivers/source/Packages/ddk_pack.tar.gz</t>
   </si>
   <si>
     <t>板卡</t>
@@ -1717,12 +1756,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3899,6 +3938,56 @@
       </c>
       <c r="Q42" s="6" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3954,10 +4043,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1"/>
